--- a/data/trans_orig/P44D-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Dificultad-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6402</v>
+        <v>6423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06026900885347974</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1801352146773369</v>
+        <v>0.1807354970637399</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7413</v>
+        <v>6857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03637911279448902</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1259080594493709</v>
+        <v>0.1164510267051544</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +819,7 @@
         <v>33398</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29138</v>
+        <v>29117</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>35540</v>
@@ -828,7 +828,7 @@
         <v>0.9397309911465203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8198647853226632</v>
+        <v>0.8192645029362601</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>56737</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51466</v>
+        <v>52022</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>58879</v>
@@ -849,7 +849,7 @@
         <v>0.963620887205511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8740919405506287</v>
+        <v>0.8835489732948452</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -944,19 +944,19 @@
         <v>3047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8165</v>
+        <v>8821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08461747242481399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02330676515528339</v>
+        <v>0.02559208803642958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.226716619422493</v>
+        <v>0.2449216853538751</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -965,19 +965,19 @@
         <v>5039</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1156</v>
+        <v>1593</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11346</v>
+        <v>11347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1591852616160774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0365096612316338</v>
+        <v>0.05033307403996735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3584470575444153</v>
+        <v>0.3584988905555097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -986,19 +986,19 @@
         <v>8086</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3477</v>
+        <v>3060</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15665</v>
+        <v>15233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1194970745347838</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05138410980581993</v>
+        <v>0.04522668648341611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.231499110522377</v>
+        <v>0.2251125819048758</v>
       </c>
     </row>
     <row r="8">
@@ -1015,19 +1015,19 @@
         <v>32968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27850</v>
+        <v>27194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35176</v>
+        <v>35093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.915382527575186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.773283380577507</v>
+        <v>0.7550783146461245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9766932348447164</v>
+        <v>0.9744079119635704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -1036,19 +1036,19 @@
         <v>26613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20306</v>
+        <v>20305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30496</v>
+        <v>30059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8408147383839226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6415529424555846</v>
+        <v>0.6415011094444903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9634903387683662</v>
+        <v>0.9496669259600339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -1057,19 +1057,19 @@
         <v>59581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52002</v>
+        <v>52434</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64190</v>
+        <v>64607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8805029254652162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7685008894776232</v>
+        <v>0.7748874180951242</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9486158901941804</v>
+        <v>0.954773313516584</v>
       </c>
     </row>
     <row r="9">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4859</v>
+        <v>4154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03393968802985928</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1673175676736093</v>
+        <v>0.1430420790094364</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1182,19 +1182,19 @@
         <v>6267</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2254</v>
+        <v>2303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11853</v>
+        <v>11790</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2756557796040522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09915183906593392</v>
+        <v>0.1012938075838531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5213677707652208</v>
+        <v>0.5185658822476137</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1203,19 +1203,19 @@
         <v>7253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3132</v>
+        <v>3081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14274</v>
+        <v>13628</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1400802742913242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06049682605580684</v>
+        <v>0.05950447011958166</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2756887971202804</v>
+        <v>0.2632218448041538</v>
       </c>
     </row>
     <row r="11">
@@ -1232,7 +1232,7 @@
         <v>28053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24180</v>
+        <v>24885</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>29039</v>
@@ -1241,7 +1241,7 @@
         <v>0.9660603119701408</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8326824323263916</v>
+        <v>0.8569579209905637</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1253,19 +1253,19 @@
         <v>16468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10882</v>
+        <v>10945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20481</v>
+        <v>20432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7243442203959478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4786322292347795</v>
+        <v>0.4814341177523864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9008481609340662</v>
+        <v>0.8987061924161469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1274,19 +1274,19 @@
         <v>44521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37500</v>
+        <v>38146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48642</v>
+        <v>48693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8599197257086758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7243112028797202</v>
+        <v>0.7367781551958463</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9395031739441931</v>
+        <v>0.9404955298804186</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>10618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5031</v>
+        <v>5352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16675</v>
+        <v>16573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.436728038506822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2069531163438882</v>
+        <v>0.2201316124498323</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6858838400930551</v>
+        <v>0.6816746827778076</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1399,19 +1399,19 @@
         <v>6086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1935</v>
+        <v>1907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11813</v>
+        <v>11382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3188964865493333</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1013807772759923</v>
+        <v>0.09992222095290711</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6189500540651633</v>
+        <v>0.5963621664104138</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1420,19 +1420,19 @@
         <v>16704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9378</v>
+        <v>8593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25284</v>
+        <v>23735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3849067339244963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2160931202983893</v>
+        <v>0.1980052558625278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5826054833241368</v>
+        <v>0.5469229002110948</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>13694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7637</v>
+        <v>7739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19281</v>
+        <v>18960</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.563271961493178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3141161599069448</v>
+        <v>0.3183253172221924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7930468836561111</v>
+        <v>0.779868387550169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1470,19 +1470,19 @@
         <v>13000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7273</v>
+        <v>7704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17151</v>
+        <v>17179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6811035134506667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3810499459348367</v>
+        <v>0.403637833589586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8986192227240077</v>
+        <v>0.900077779047093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1491,19 +1491,19 @@
         <v>26694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18114</v>
+        <v>19663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34020</v>
+        <v>34805</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6150932660755037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4173945166758633</v>
+        <v>0.4530770997889052</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7839068797016108</v>
+        <v>0.8019947441374721</v>
       </c>
     </row>
     <row r="15">
@@ -1595,19 +1595,19 @@
         <v>14651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1299922321537755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1616,19 +1616,19 @@
         <v>19534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1791890841173321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1637,19 +1637,19 @@
         <v>34185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1541809393775411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>98055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87153</v>
+        <v>88481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105057</v>
+        <v>104986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8700077678462245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7732747756343737</v>
+        <v>0.785061479370511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9321300795305105</v>
+        <v>0.9315006401281303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -1687,19 +1687,19 @@
         <v>89479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79853</v>
+        <v>79114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97077</v>
+        <v>97141</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.820810915882668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7325070586753162</v>
+        <v>0.7257262163443622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8905066113913769</v>
+        <v>0.8910944285710244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -1708,19 +1708,19 @@
         <v>187534</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174188</v>
+        <v>173729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199641</v>
+        <v>198262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8458190606224589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7856246701343778</v>
+        <v>0.7835549287806823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9004250975292143</v>
+        <v>0.8942050310964214</v>
       </c>
     </row>
     <row r="18">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5033</v>
+        <v>4277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02346857783885104</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1194338708186886</v>
+        <v>0.1015000847603195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7074</v>
+        <v>7175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07179970715734577</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2239502959310581</v>
+        <v>0.2271283640049963</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2094,19 +2094,19 @@
         <v>3257</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8760</v>
+        <v>8309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04417549023978831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01349705933058652</v>
+        <v>0.01340256186888282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1188075428361417</v>
+        <v>0.1126963373670284</v>
       </c>
     </row>
     <row r="5">
@@ -2123,7 +2123,7 @@
         <v>41152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37108</v>
+        <v>37864</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>42141</v>
@@ -2132,7 +2132,7 @@
         <v>0.976531422161149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8805661291813113</v>
+        <v>0.8984999152396811</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>29321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24515</v>
+        <v>24414</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>31589</v>
@@ -2153,7 +2153,7 @@
         <v>0.9282002928426543</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7760497040689408</v>
+        <v>0.772871635995004</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2165,19 +2165,19 @@
         <v>70473</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64970</v>
+        <v>65421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72735</v>
+        <v>72742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9558245097602117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8811924571638582</v>
+        <v>0.8873036626329712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9865029406694135</v>
+        <v>0.9865974381311171</v>
       </c>
     </row>
     <row r="6">
@@ -2269,19 +2269,19 @@
         <v>6418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2256</v>
+        <v>2967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11806</v>
+        <v>12096</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1594210243880042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05604995645309674</v>
+        <v>0.07370656936881172</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2932585112778025</v>
+        <v>0.3004709987695455</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6125</v>
+        <v>6143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04057856531421444</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2015335956830327</v>
+        <v>0.2021289590422874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2311,19 +2311,19 @@
         <v>7651</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3763</v>
+        <v>3318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15319</v>
+        <v>14369</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.108297506651443</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05326485213935189</v>
+        <v>0.04696662651994615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2168249102286526</v>
+        <v>0.2033862323647912</v>
       </c>
     </row>
     <row r="8">
@@ -2340,19 +2340,19 @@
         <v>33840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28452</v>
+        <v>28162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38002</v>
+        <v>37291</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8405789756119958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7067414887221976</v>
+        <v>0.6995290012304535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9439500435469033</v>
+        <v>0.9262934306311814</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -2361,7 +2361,7 @@
         <v>29160</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24268</v>
+        <v>24250</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>30393</v>
@@ -2370,7 +2370,7 @@
         <v>0.9594214346857856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7984664043169627</v>
+        <v>0.7978710409577127</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2382,19 +2382,19 @@
         <v>63000</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55332</v>
+        <v>56282</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66888</v>
+        <v>67333</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.891702493348557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7831750897713475</v>
+        <v>0.7966137676352089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9467351478606492</v>
+        <v>0.9530333734800539</v>
       </c>
     </row>
     <row r="9">
@@ -2486,19 +2486,19 @@
         <v>2663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6717</v>
+        <v>7328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07135068993468636</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01912091918427548</v>
+        <v>0.02024132664494394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1799697685560699</v>
+        <v>0.1963506371435235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2507,19 +2507,19 @@
         <v>6394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2215</v>
+        <v>2263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11718</v>
+        <v>12200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2343993137618759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0812011106822686</v>
+        <v>0.08297542020905237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4295777539692054</v>
+        <v>0.4472591222244191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2528,19 +2528,19 @@
         <v>9057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16218</v>
+        <v>16178</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1401990520904225</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07481115305210985</v>
+        <v>0.06966090471106211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2510467861210138</v>
+        <v>0.2504290444120809</v>
       </c>
     </row>
     <row r="11">
@@ -2557,19 +2557,19 @@
         <v>34660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30606</v>
+        <v>29995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36609</v>
+        <v>36568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9286493100653136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8200302314439301</v>
+        <v>0.8036493628564765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808790808157245</v>
+        <v>0.9797586733550561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -2578,19 +2578,19 @@
         <v>20884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15560</v>
+        <v>15078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25063</v>
+        <v>25015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7656006862381242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5704222460307952</v>
+        <v>0.5527408777755806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9187988893177313</v>
+        <v>0.9170245797909472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -2599,19 +2599,19 @@
         <v>55544</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48383</v>
+        <v>48423</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>59768</v>
+        <v>60101</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8598009479095775</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7489532138789863</v>
+        <v>0.7495709555879191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9251888469478903</v>
+        <v>0.9303390952889374</v>
       </c>
     </row>
     <row r="12">
@@ -2703,19 +2703,19 @@
         <v>12842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7328</v>
+        <v>7321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19373</v>
+        <v>20067</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3467565900408467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1978575188605621</v>
+        <v>0.1976883795902731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5231111420333914</v>
+        <v>0.5418522443600506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7182</v>
+        <v>7670</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1283634400532393</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.367463582665343</v>
+        <v>0.3924357403228912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -2745,19 +2745,19 @@
         <v>15351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8931</v>
+        <v>9492</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23332</v>
+        <v>22632</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2713144747846699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1578548815197256</v>
+        <v>0.1677654673130835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4123752052940288</v>
+        <v>0.3999983290139643</v>
       </c>
     </row>
     <row r="14">
@@ -2774,19 +2774,19 @@
         <v>24193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17662</v>
+        <v>16968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29707</v>
+        <v>29714</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6532434099591532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4768888579666088</v>
+        <v>0.4581477556399494</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8021424811394379</v>
+        <v>0.8023116204097269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -2795,7 +2795,7 @@
         <v>17036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12363</v>
+        <v>11875</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>19545</v>
@@ -2804,7 +2804,7 @@
         <v>0.8716365599467607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6325364173346572</v>
+        <v>0.6075642596771084</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2816,19 +2816,19 @@
         <v>41228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33247</v>
+        <v>33947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47648</v>
+        <v>47087</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7286855252153301</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5876247947059712</v>
+        <v>0.6000016709860352</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8421451184802743</v>
+        <v>0.8322345326869165</v>
       </c>
     </row>
     <row r="15">
@@ -2920,19 +2920,19 @@
         <v>22912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14850</v>
+        <v>15516</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33184</v>
+        <v>34049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1461628155419835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09473154835688595</v>
+        <v>0.09897901818475809</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2116925156200556</v>
+        <v>0.2172085241480547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -2941,19 +2941,19 @@
         <v>12404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1140044804643591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -2962,19 +2962,19 @@
         <v>35316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25535</v>
+        <v>23948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47622</v>
+        <v>47261</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1329870732757528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09615536693800635</v>
+        <v>0.09017909855096307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1793277092096305</v>
+        <v>0.1779684853278844</v>
       </c>
     </row>
     <row r="17">
@@ -2991,19 +2991,19 @@
         <v>133845</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123573</v>
+        <v>122708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141907</v>
+        <v>141241</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8538371844580165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7883074843799444</v>
+        <v>0.7827914758519452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.905268451643114</v>
+        <v>0.9010209818152418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3012,19 +3012,19 @@
         <v>96400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87686</v>
+        <v>87784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102143</v>
+        <v>102453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8859955195356408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8059071065256413</v>
+        <v>0.8068049472128216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9387825424834202</v>
+        <v>0.9416320048046682</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>210</v>
@@ -3033,19 +3033,19 @@
         <v>230245</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>217939</v>
+        <v>218300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240026</v>
+        <v>241613</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8670129267242471</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8206722907903696</v>
+        <v>0.8220315146721148</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9038446330619939</v>
+        <v>0.9098209014490368</v>
       </c>
     </row>
     <row r="18">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6213</v>
+        <v>5085</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01630021250332977</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1018063643759334</v>
+        <v>0.08331876835277746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3745</v>
+        <v>3386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007689799227374203</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04177070077489998</v>
+        <v>0.03776818780019225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5521</v>
+        <v>6027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01117702222024232</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03664304051931758</v>
+        <v>0.03999836854111325</v>
       </c>
     </row>
     <row r="5">
@@ -3448,7 +3448,7 @@
         <v>60031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54813</v>
+        <v>55941</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>61026</v>
@@ -3457,7 +3457,7 @@
         <v>0.9836997874966703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8981936356240663</v>
+        <v>0.9166812316472226</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3469,7 +3469,7 @@
         <v>88966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85910</v>
+        <v>86269</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>89655</v>
@@ -3478,7 +3478,7 @@
         <v>0.9923102007726258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9582292992250961</v>
+        <v>0.9622318121998078</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3490,16 +3490,16 @@
         <v>148997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>145160</v>
+        <v>144654</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>150681</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9888229777797577</v>
+        <v>0.9888229777797576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.963356959480682</v>
+        <v>0.9600016314588873</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -3594,19 +3594,19 @@
         <v>4273</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1472</v>
+        <v>1420</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9482</v>
+        <v>9341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02916018852383571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01004284716000304</v>
+        <v>0.009689870219914598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06470861708731161</v>
+        <v>0.06375087535984497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3615,19 +3615,19 @@
         <v>2905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6444</v>
+        <v>6138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01917848686392776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006510807928101181</v>
+        <v>0.006366161185943585</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04254591532819191</v>
+        <v>0.04052791233720766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -3636,19 +3636,19 @@
         <v>7177</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3683</v>
+        <v>3678</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13494</v>
+        <v>12904</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02408693688679254</v>
+        <v>0.02408693688679253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01235918720905973</v>
+        <v>0.01234378204795809</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04528505225971002</v>
+        <v>0.04330641289738994</v>
       </c>
     </row>
     <row r="8">
@@ -3665,19 +3665,19 @@
         <v>142258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137049</v>
+        <v>137190</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145059</v>
+        <v>145111</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9708398114761642</v>
+        <v>0.9708398114761644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9352913829126887</v>
+        <v>0.936249124640155</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9899571528399971</v>
+        <v>0.9903101297800855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -3686,19 +3686,19 @@
         <v>148545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145006</v>
+        <v>145312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150464</v>
+        <v>150486</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9808215131360724</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9574540846718077</v>
+        <v>0.9594720876627922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9934891920718987</v>
+        <v>0.9936338388140563</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>437</v>
@@ -3707,19 +3707,19 @@
         <v>290804</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>284487</v>
+        <v>285077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>294298</v>
+        <v>294303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9759130631132074</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9547149477402904</v>
+        <v>0.9566935871026101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9876408127909403</v>
+        <v>0.9876562179520419</v>
       </c>
     </row>
     <row r="9">
@@ -3811,19 +3811,19 @@
         <v>15241</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9067</v>
+        <v>9295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23551</v>
+        <v>22799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08458662973681826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05032220059775788</v>
+        <v>0.05158443403708914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1307015048519436</v>
+        <v>0.1265298179932731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3832,19 +3832,19 @@
         <v>13115</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8735</v>
+        <v>8608</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19832</v>
+        <v>19548</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0931211110195176</v>
+        <v>0.09312111101951764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06201982212747369</v>
+        <v>0.06112049748574971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1408143674773358</v>
+        <v>0.13880087380551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -3853,19 +3853,19 @@
         <v>28356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20086</v>
+        <v>21142</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38357</v>
+        <v>37821</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08833081938354667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06256992741757753</v>
+        <v>0.06585976922759348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1194842912682421</v>
+        <v>0.1178140514152804</v>
       </c>
     </row>
     <row r="11">
@@ -3882,19 +3882,19 @@
         <v>164945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156635</v>
+        <v>157387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>171119</v>
+        <v>170891</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9154133702631816</v>
+        <v>0.9154133702631818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8692984951480565</v>
+        <v>0.8734701820067269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9496777994022422</v>
+        <v>0.9484155659629108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>223</v>
@@ -3903,19 +3903,19 @@
         <v>127722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121005</v>
+        <v>121289</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>132102</v>
+        <v>132229</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9068788889804824</v>
+        <v>0.9068788889804825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8591856325226647</v>
+        <v>0.8611991261944903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9379801778725265</v>
+        <v>0.9388795025142502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>434</v>
@@ -3924,19 +3924,19 @@
         <v>292666</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>282665</v>
+        <v>283201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>300936</v>
+        <v>299880</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9116691806164532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.880515708731758</v>
+        <v>0.8821859485847197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9374300725824223</v>
+        <v>0.9341402307724065</v>
       </c>
     </row>
     <row r="12">
@@ -4028,19 +4028,19 @@
         <v>35864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26214</v>
+        <v>26553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46476</v>
+        <v>46186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1965017166516218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1436264640385418</v>
+        <v>0.1454841117401697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2546471285039653</v>
+        <v>0.2530574059811926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4049,19 +4049,19 @@
         <v>21105</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15594</v>
+        <v>14990</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28127</v>
+        <v>28475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1465611695487739</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1082915110606881</v>
+        <v>0.1040948881617217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1953250021214315</v>
+        <v>0.1977430916538343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -4070,19 +4070,19 @@
         <v>56969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45512</v>
+        <v>45742</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69272</v>
+        <v>69244</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1744767393627031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1393886512656101</v>
+        <v>0.1400922620973755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2121575619565918</v>
+        <v>0.2120713320126805</v>
       </c>
     </row>
     <row r="14">
@@ -4099,19 +4099,19 @@
         <v>146649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136037</v>
+        <v>136327</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156299</v>
+        <v>155960</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8034982833483781</v>
+        <v>0.8034982833483784</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7453528714960346</v>
+        <v>0.7469425940188079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8563735359614582</v>
+        <v>0.8545158882598304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>204</v>
@@ -4120,19 +4120,19 @@
         <v>122895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115873</v>
+        <v>115525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>128406</v>
+        <v>129010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.853438830451226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8046749978785681</v>
+        <v>0.8022569083461659</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8917084889393119</v>
+        <v>0.8959051118382785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -4141,19 +4141,19 @@
         <v>269544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>257241</v>
+        <v>257269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>281001</v>
+        <v>280771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.825523260637297</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7878424380434084</v>
+        <v>0.7879286679873195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8606113487343898</v>
+        <v>0.8599077379026243</v>
       </c>
     </row>
     <row r="15">
@@ -4245,19 +4245,19 @@
         <v>56373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43733</v>
+        <v>44031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71130</v>
+        <v>70884</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09885578434569578</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07668947106136911</v>
+        <v>0.07721277281899513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1247333575459312</v>
+        <v>0.1243027135197664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -4266,19 +4266,19 @@
         <v>37814</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29980</v>
+        <v>29947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48292</v>
+        <v>47821</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07189708787281889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0570024284652619</v>
+        <v>0.05693885675530898</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09181986121026739</v>
+        <v>0.09092358347574218</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -4287,19 +4287,19 @@
         <v>94187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77769</v>
+        <v>78486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110683</v>
+        <v>111173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08592132696937267</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07094423307093342</v>
+        <v>0.07159860090079886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1009698689663703</v>
+        <v>0.1014171133092808</v>
       </c>
     </row>
     <row r="17">
@@ -4316,19 +4316,19 @@
         <v>513882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>499125</v>
+        <v>499371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>526522</v>
+        <v>526224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9011442156543042</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8752666424540689</v>
+        <v>0.8756972864802337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.923310528938631</v>
+        <v>0.9227872271810048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>829</v>
@@ -4337,19 +4337,19 @@
         <v>488128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>477650</v>
+        <v>478121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495962</v>
+        <v>495995</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9281029121271811</v>
+        <v>0.9281029121271809</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9081801387897327</v>
+        <v>0.9090764165242574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9429975715347382</v>
+        <v>0.9430611432446911</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1472</v>
@@ -4358,19 +4358,19 @@
         <v>1002011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>985515</v>
+        <v>985025</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1018429</v>
+        <v>1017712</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9140786730306273</v>
+        <v>0.9140786730306272</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8990301310336297</v>
+        <v>0.898582886690719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9290557669290666</v>
+        <v>0.9284013990992011</v>
       </c>
     </row>
     <row r="18">
